--- a/ApolloQA/Data/RatingManual/SC/VA00063.FleetSize_VehicleAgeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00063.FleetSize_VehicleAgeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00063.FleetSize_VehicleAgeFactors" sheetId="1" r:id="R61037b2f71b44dbf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00063.FleetSize_VehicleAgeFactors" sheetId="1" r:id="R7f946d18e1534fd8"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -970,6 +970,23 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4057</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>24</x:v>
       </x:c>
       <x:c t="str">
